--- a/Table_Design _updated.xlsx
+++ b/Table_Design _updated.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="757" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="757" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Details_TBL" sheetId="1" r:id="rId1"/>
     <sheet name="Transaction_Details" sheetId="2" r:id="rId2"/>
-    <sheet name="User_Master" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer_Master" sheetId="3" r:id="rId3"/>
     <sheet name="flows" sheetId="6" r:id="rId4"/>
     <sheet name="Accounts" sheetId="4" r:id="rId5"/>
     <sheet name="Beneficary_Details" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
   <si>
     <t>Transaction Table</t>
   </si>
@@ -130,18 +125,12 @@
     <t>FK = References : Customer_Detail_Tbl</t>
   </si>
   <si>
-    <t>Relationship</t>
-  </si>
-  <si>
     <t>One To One</t>
   </si>
   <si>
     <t>Cascade</t>
   </si>
   <si>
-    <t>USER_Master_TBL</t>
-  </si>
-  <si>
     <t>CUST123456</t>
   </si>
   <si>
@@ -190,21 +179,9 @@
     <t>Sunil</t>
   </si>
   <si>
-    <t>ManyToOne relation  with Customer_ID on accounts table</t>
-  </si>
-  <si>
-    <t>Sequence starting from 1000</t>
-  </si>
-  <si>
-    <t>allocations 1</t>
-  </si>
-  <si>
     <t>User = CUST+CUSOMER_ID</t>
   </si>
   <si>
-    <t>one to one cascade</t>
-  </si>
-  <si>
     <t>Abstract</t>
   </si>
   <si>
@@ -214,28 +191,16 @@
     <t>FK= Refernce to Customer_Master</t>
   </si>
   <si>
-    <t>Account_Id</t>
-  </si>
-  <si>
     <t>Current Inherits</t>
   </si>
   <si>
     <t>has OneToMany relationship with Transaction table</t>
   </si>
   <si>
-    <t>Relationship : OneToOne mapping with Accounts</t>
-  </si>
-  <si>
     <t>Beneficary_Id</t>
   </si>
   <si>
-    <t>login_ID</t>
-  </si>
-  <si>
     <t>interest_Rate</t>
-  </si>
-  <si>
-    <t>userid</t>
   </si>
   <si>
     <t>custid</t>
@@ -354,13 +319,46 @@
   </si>
   <si>
     <t>addNewCustomer(Customer cust)</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>Customer_Id</t>
+  </si>
+  <si>
+    <t>LoginId</t>
+  </si>
+  <si>
+    <t>Relationship : OneToOne mapping with CustomerMaster</t>
+  </si>
+  <si>
+    <t>Customer_Master_TBL</t>
+  </si>
+  <si>
+    <t>Relationship : OneToMany mapping with Beneficiary_Details</t>
+  </si>
+  <si>
+    <t>Relationship : OneToMany mapping with Accounts</t>
+  </si>
+  <si>
+    <t>Relationship : OneToOne mapping with CustomerDetails</t>
+  </si>
+  <si>
+    <t>Relationship : ManyToOne mapping with CustomerDetails</t>
+  </si>
+  <si>
+    <t>Relationship : OneToMany mapping with Transactions</t>
+  </si>
+  <si>
+    <t>Relationship : ManyToOne mapping with Accounts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,21 +712,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -736,22 +734,22 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -796,34 +794,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>123457</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>123458</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -833,14 +831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -848,20 +846,20 @@
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -884,10 +882,10 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>435465656</v>
       </c>
@@ -910,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>435465616</v>
       </c>
@@ -933,9 +931,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -944,14 +942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -959,12 +957,12 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -972,9 +970,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -983,72 +981,72 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
       </c>
       <c r="D6">
         <v>123457</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>123458</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1057,14 +1055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
@@ -1073,181 +1071,181 @@
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3">
         <v>8</v>
@@ -1259,72 +1257,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1333,14 +1341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -1349,55 +1357,55 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="F7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
       <c r="F8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>453453456</v>
       </c>
       <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Design _updated.xlsx
+++ b/Table_Design _updated.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="757" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="726" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Details_TBL" sheetId="1" r:id="rId1"/>
     <sheet name="Transaction_Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Customer_Master" sheetId="3" r:id="rId3"/>
+    <sheet name="User_Master" sheetId="3" r:id="rId3"/>
     <sheet name="flows" sheetId="6" r:id="rId4"/>
     <sheet name="Accounts" sheetId="4" r:id="rId5"/>
     <sheet name="Beneficary_Details" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
   <si>
     <t>Transaction Table</t>
   </si>
@@ -125,12 +130,18 @@
     <t>FK = References : Customer_Detail_Tbl</t>
   </si>
   <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t>One To One</t>
   </si>
   <si>
     <t>Cascade</t>
   </si>
   <si>
+    <t>USER_Master_TBL</t>
+  </si>
+  <si>
     <t>CUST123456</t>
   </si>
   <si>
@@ -179,9 +190,21 @@
     <t>Sunil</t>
   </si>
   <si>
+    <t>ManyToOne relation  with Customer_ID on accounts table</t>
+  </si>
+  <si>
+    <t>Sequence starting from 1000</t>
+  </si>
+  <si>
+    <t>allocations 1</t>
+  </si>
+  <si>
     <t>User = CUST+CUSOMER_ID</t>
   </si>
   <si>
+    <t>one to one cascade</t>
+  </si>
+  <si>
     <t>Abstract</t>
   </si>
   <si>
@@ -191,16 +214,25 @@
     <t>FK= Refernce to Customer_Master</t>
   </si>
   <si>
+    <t>Account_Id</t>
+  </si>
+  <si>
     <t>Current Inherits</t>
   </si>
   <si>
     <t>has OneToMany relationship with Transaction table</t>
   </si>
   <si>
+    <t>Relationship : OneToOne mapping with Accounts</t>
+  </si>
+  <si>
     <t>Beneficary_Id</t>
   </si>
   <si>
     <t>interest_Rate</t>
+  </si>
+  <si>
+    <t>userid</t>
   </si>
   <si>
     <t>custid</t>
@@ -321,44 +353,56 @@
     <t>addNewCustomer(Customer cust)</t>
   </si>
   <si>
-    <t>Account_No</t>
-  </si>
-  <si>
-    <t>Customer_Id</t>
-  </si>
-  <si>
-    <t>LoginId</t>
-  </si>
-  <si>
-    <t>Relationship : OneToOne mapping with CustomerMaster</t>
-  </si>
-  <si>
-    <t>Customer_Master_TBL</t>
-  </si>
-  <si>
-    <t>Relationship : OneToMany mapping with Beneficiary_Details</t>
-  </si>
-  <si>
-    <t>Relationship : OneToMany mapping with Accounts</t>
-  </si>
-  <si>
-    <t>Relationship : OneToOne mapping with CustomerDetails</t>
-  </si>
-  <si>
-    <t>Relationship : ManyToOne mapping with CustomerDetails</t>
-  </si>
-  <si>
-    <t>Relationship : OneToMany mapping with Transactions</t>
-  </si>
-  <si>
-    <t>Relationship : ManyToOne mapping with Accounts</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>JUNIT</t>
+  </si>
+  <si>
+    <t>pending angular</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>session management</t>
+  </si>
+  <si>
+    <t>customer registration</t>
+  </si>
+  <si>
+    <t>add bene</t>
+  </si>
+  <si>
+    <t>add account</t>
+  </si>
+  <si>
+    <t>add balance</t>
+  </si>
+  <si>
+    <t>update profile</t>
+  </si>
+  <si>
+    <t>delete bene</t>
+  </si>
+  <si>
+    <t>sunil</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Amit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +439,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -434,12 +496,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,21 +780,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -734,22 +802,22 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -794,34 +862,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>123457</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>123458</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -831,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -846,20 +914,20 @@
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -882,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>435465656</v>
       </c>
@@ -908,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>435465616</v>
       </c>
@@ -931,9 +999,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -942,14 +1010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -957,12 +1025,12 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -970,9 +1038,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -981,72 +1049,72 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>123457</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>123458</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1055,200 +1123,298 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>89</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="3">
+        <v>98</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>91</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1257,82 +1423,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1341,14 +1497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -1357,55 +1513,55 @@
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>453453456</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
-        <v>106</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
